--- a/Lab 3/Project Details/Lab 3 Rubric.xlsx
+++ b/Lab 3/Project Details/Lab 3 Rubric.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/thads_microsoft_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\GitHub\ML-Projects\ML1-Projects\Lab 3\Project Details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB0EF8C-18C1-4E4C-B5AC-1021D5DC9515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96149D4B-73CD-48FD-8ABE-A2FB90889646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AC8E2A38-D124-4BE9-A8C4-DDAAFD324E3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC8E2A38-D124-4BE9-A8C4-DDAAFD324E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Category </t>
   </si>
@@ -114,6 +105,21 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Some errors in visualizations</t>
+  </si>
+  <si>
+    <t>DB Scan tuning needed</t>
+  </si>
+  <si>
+    <t>Need to measure time of spectral clustering</t>
   </si>
 </sst>
 </file>
@@ -189,10 +195,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -202,7 +208,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -285,6 +291,25 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7F1FB2F9-1E3C-485F-A508-0B34C8CA048A}"/>
@@ -301,12 +326,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D7E91B8-141A-4651-8008-B07F0DED09A9}" name="Table1" displayName="Table1" ref="A1:C12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:C12" xr:uid="{D41B1EB9-4A41-4E15-8A55-7820FEB19BC6}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{13AF5814-681A-4E85-975F-D16B76BBB125}" name="Category " dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3965B2D0-A731-480C-8F25-F3DEA7BB4507}" name="Available " dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F81958C0-0FBF-41A9-B535-CEAAF4CFEB96}" name="Requirements " dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D7E91B8-141A-4651-8008-B07F0DED09A9}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D12" xr:uid="{D41B1EB9-4A41-4E15-8A55-7820FEB19BC6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{13AF5814-681A-4E85-975F-D16B76BBB125}" name="Category " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3965B2D0-A731-480C-8F25-F3DEA7BB4507}" name="Available " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F81958C0-0FBF-41A9-B535-CEAAF4CFEB96}" name="Requirements " dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C78C1252-CADC-4C3F-BA67-F3DD17A8401C}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -609,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F879EA55-FBFB-4084-BFC5-8CEC05C6046D}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,9 +646,10 @@
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="87" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -632,16 +659,20 @@
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -651,15 +682,19 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -669,8 +704,11 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -680,8 +718,11 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -691,8 +732,11 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -702,8 +746,11 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -713,8 +760,9 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -724,8 +772,9 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -735,8 +784,9 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -746,6 +796,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
